--- a/biology/Zoologie/Coléoptère_bombardier/Coléoptère_bombardier.xlsx
+++ b/biology/Zoologie/Coléoptère_bombardier/Coléoptère_bombardier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Col%C3%A9opt%C3%A8re_bombardier</t>
+          <t>Coléoptère_bombardier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les coléoptères bombardiers sont des coléoptères de la famille des carabidés (Carabidae) ayant la capacité de projeter bruyamment sur leurs prédateurs (fourmis...) un liquide corrosif en ébullition, mélange de substances issues de la réaction entre l'hydroquinone et le peroxyde d'hydrogène conservées ensemble dans leur abdomen grâce à la présence d'un inhibiteur chimique[1]. 
-Les bombardiers sont capables de tourner leur abdomen jusqu’à 170°[2].
-Les bombardiers peuvent également survivre dans une certaine mesure au système digestif des crapauds qui les avaleraient, même après avoir séjourné plusieurs minutes dans l’estomac de leur prédateur. Ce sont les produits chimiques défensifs qu'ils produisent qui forcent les crapauds à les régurgiter[3],[4].
+Les coléoptères bombardiers sont des coléoptères de la famille des carabidés (Carabidae) ayant la capacité de projeter bruyamment sur leurs prédateurs (fourmis...) un liquide corrosif en ébullition, mélange de substances issues de la réaction entre l'hydroquinone et le peroxyde d'hydrogène conservées ensemble dans leur abdomen grâce à la présence d'un inhibiteur chimique. 
+Les bombardiers sont capables de tourner leur abdomen jusqu’à 170°.
+Les bombardiers peuvent également survivre dans une certaine mesure au système digestif des crapauds qui les avaleraient, même après avoir séjourné plusieurs minutes dans l’estomac de leur prédateur. Ce sont les produits chimiques défensifs qu'ils produisent qui forcent les crapauds à les régurgiter,.
 On en dénombre plus de 500 espèces, parmi lesquelles :
 Brachinus crepitans
 Brachinus solidipalpis
